--- a/target/tangsel/Analisis_Pelatihan_Tangsel.xlsx
+++ b/target/tangsel/Analisis_Pelatihan_Tangsel.xlsx
@@ -539,28 +539,28 @@
         </is>
       </c>
       <c r="D2" s="4" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>82</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>2165</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>42.63</v>
+        <v>42.77</v>
       </c>
       <c r="L2" s="4" t="inlineStr">
         <is>
@@ -583,28 +583,28 @@
         </is>
       </c>
       <c r="D3" s="4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="J3" s="4" t="n">
         <v>2165</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>43.28</v>
+        <v>43.33</v>
       </c>
       <c r="L3" s="4" t="inlineStr">
         <is>
@@ -630,25 +630,25 @@
         <v>6</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>942</v>
+        <v>931</v>
       </c>
       <c r="J4" s="4" t="n">
         <v>2165</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>43.51</v>
+        <v>43</v>
       </c>
       <c r="L4" s="4" t="inlineStr">
         <is>
@@ -671,28 +671,28 @@
         </is>
       </c>
       <c r="D5" s="4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>922</v>
+        <v>905</v>
       </c>
       <c r="J5" s="4" t="n">
         <v>2165</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>42.59</v>
+        <v>41.8</v>
       </c>
       <c r="L5" s="4" t="inlineStr">
         <is>
@@ -715,28 +715,28 @@
         </is>
       </c>
       <c r="D6" s="4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>950</v>
+        <v>932</v>
       </c>
       <c r="J6" s="4" t="n">
         <v>2165</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>43.88</v>
+        <v>43.05</v>
       </c>
       <c r="L6" s="4" t="inlineStr">
         <is>
@@ -759,19 +759,19 @@
         </is>
       </c>
       <c r="D7" s="4" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I7" s="4" t="n">
         <v>920</v>
@@ -803,28 +803,28 @@
         </is>
       </c>
       <c r="D8" s="4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H8" s="4" t="n">
         <v>22</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="J8" s="4" t="n">
         <v>2165</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>42.59</v>
+        <v>42.31</v>
       </c>
       <c r="L8" s="4" t="inlineStr">
         <is>
@@ -847,28 +847,28 @@
         </is>
       </c>
       <c r="D9" s="4" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>919</v>
+        <v>926</v>
       </c>
       <c r="J9" s="4" t="n">
         <v>2165</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>42.45</v>
+        <v>42.77</v>
       </c>
       <c r="L9" s="4" t="inlineStr">
         <is>
@@ -891,28 +891,28 @@
         </is>
       </c>
       <c r="D10" s="4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>946</v>
+        <v>939</v>
       </c>
       <c r="J10" s="4" t="n">
         <v>2165</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>43.7</v>
+        <v>43.37</v>
       </c>
       <c r="L10" s="4" t="inlineStr">
         <is>
@@ -938,25 +938,25 @@
         <v>6</v>
       </c>
       <c r="E11" s="4" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="4" t="n">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H11" s="4" t="n">
         <v>23</v>
       </c>
       <c r="I11" s="4" t="n">
-        <v>936</v>
+        <v>931</v>
       </c>
       <c r="J11" s="4" t="n">
         <v>2165</v>
       </c>
       <c r="K11" s="4" t="n">
-        <v>43.23</v>
+        <v>43</v>
       </c>
       <c r="L11" s="4" t="inlineStr">
         <is>
